--- a/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
+++ b/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
@@ -5,35 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\GitHub\Ingenieria_Software\Semana 7 - 11  septiembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 7 - 11  septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77F43A6C-60AC-4E40-8586-2830FE1D3892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F5A2A5-CE43-4CCA-BC7B-6E9C36524B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -104,6 +96,15 @@
   </si>
   <si>
     <t>SEMANA 3</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>Leer de las diapositivas (Asistimos a reunión urgente)</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
   </si>
 </sst>
 </file>
@@ -720,28 +721,28 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="26.36328125" customWidth="1"/>
-    <col min="5" max="5" width="23.36328125" customWidth="1"/>
-    <col min="6" max="6" width="23.08984375" customWidth="1"/>
-    <col min="7" max="7" width="22.1796875" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" customWidth="1"/>
-    <col min="11" max="11" width="4.6328125" customWidth="1"/>
-    <col min="12" max="12" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -759,7 +760,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -775,7 +776,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -798,7 +799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
@@ -811,7 +812,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>8</v>
@@ -822,7 +823,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -833,7 +834,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -846,7 +847,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>8</v>
@@ -857,7 +858,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -868,42 +869,48 @@
       <c r="F9" s="7"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
@@ -916,7 +923,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>8</v>
@@ -927,7 +934,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>9</v>
@@ -938,7 +945,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
@@ -951,7 +958,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>8</v>
@@ -962,7 +969,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>9</v>

--- a/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
+++ b/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 7 - 11  septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F5A2A5-CE43-4CCA-BC7B-6E9C36524B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40869B4F-E95D-47F5-A256-CC904020BB7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Ninguna</t>
+  </si>
+  <si>
+    <t>Cumplí el objetivo</t>
+  </si>
+  <si>
+    <t>Asistir a la reunión para el diagrama de requisitos</t>
   </si>
 </sst>
 </file>
@@ -721,7 +727,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,7 +885,9 @@
       <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
@@ -892,7 +900,9 @@
       <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
@@ -905,7 +915,9 @@
       <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>

--- a/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
+++ b/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 7 - 11  septiembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\GitHub\Ingenieria_Software\Semana 7 - 11  septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40869B4F-E95D-47F5-A256-CC904020BB7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3EC19E-CAE1-41FC-B1C9-91AB0C0E4A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Asistir a la reunión para el diagrama de requisitos</t>
+  </si>
+  <si>
+    <t>Se cumplió lo propuesto</t>
   </si>
 </sst>
 </file>
@@ -727,14 +730,14 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.44140625" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="57.77734375" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
     <col min="6" max="6" width="23.109375" customWidth="1"/>
@@ -964,8 +967,12 @@
       <c r="B16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
@@ -975,8 +982,12 @@
       <c r="B17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
@@ -986,8 +997,12 @@
       <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="8"/>
       <c r="G18" s="4"/>

--- a/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
+++ b/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\GitHub\Ingenieria_Software\Semana 7 - 11  septiembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 7 - 11  septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3EC19E-CAE1-41FC-B1C9-91AB0C0E4A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AD70EF-6305-41C0-8C4D-3D66F11C3EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Se cumplió lo propuesto</t>
+  </si>
+  <si>
+    <t>Revisar las diapositivas</t>
+  </si>
+  <si>
+    <t>Leer de las diapositivas del profe(Asistimos a reunión urgente)</t>
   </si>
 </sst>
 </file>
@@ -730,7 +736,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,7 +897,9 @@
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
     </row>
@@ -901,12 +909,14 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
     </row>
@@ -921,7 +931,9 @@
       <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
     </row>

--- a/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
+++ b/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 7 - 11  septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AD70EF-6305-41C0-8C4D-3D66F11C3EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D503F7B1-673B-49A6-AFCB-D008D8980FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>Leer de las diapositivas del profe(Asistimos a reunión urgente)</t>
+  </si>
+  <si>
+    <t>Presentar con los compañeros, de resto nada.</t>
+  </si>
+  <si>
+    <t>Estudiar otras materias hoy.</t>
+  </si>
+  <si>
+    <t>Cumplí el objetivo.</t>
   </si>
 </sst>
 </file>
@@ -736,7 +745,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,7 +909,9 @@
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -917,7 +928,9 @@
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -934,7 +947,9 @@
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">

--- a/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
+++ b/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 7 - 11  septiembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57302\Documents\GitHub\Ingenieria_Software\Semana 7 - 11  septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AD70EF-6305-41C0-8C4D-3D66F11C3EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4955787C-E65B-441B-B75B-B706B25643E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -120,6 +120,21 @@
   </si>
   <si>
     <t>Leer de las diapositivas del profe(Asistimos a reunión urgente)</t>
+  </si>
+  <si>
+    <t>Leer las diapositivas y realizar borrador para el diagrama de CU en la reunion</t>
+  </si>
+  <si>
+    <t>Hacer una revision detallada de las diapositivas</t>
+  </si>
+  <si>
+    <t>Conceptos de direccion de Flechas en el diagrama de CU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se cumplió lo propuesto </t>
+  </si>
+  <si>
+    <t>Asistir a la presentación de avances</t>
   </si>
 </sst>
 </file>
@@ -735,18 +750,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.44140625" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="57.77734375" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="64.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.21875" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" customWidth="1"/>
     <col min="9" max="9" width="13.21875" customWidth="1"/>
@@ -944,10 +959,18 @@
       <c r="B13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="6"/>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -955,10 +978,18 @@
       <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -966,10 +997,18 @@
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="7"/>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">

--- a/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
+++ b/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57302\Documents\GitHub\Ingenieria_Software\Semana 7 - 11  septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4955787C-E65B-441B-B75B-B706B25643E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BC1455-BD3B-435E-BA29-9B04F4F452AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">Se cumplió lo propuesto </t>
   </si>
   <si>
-    <t>Asistir a la presentación de avances</t>
+    <t>Asistir a la presentación de avances en clase</t>
   </si>
 </sst>
 </file>
@@ -751,7 +751,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,7 +761,7 @@
     <col min="3" max="3" width="64.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.21875" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" customWidth="1"/>
     <col min="9" max="9" width="13.21875" customWidth="1"/>

--- a/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
+++ b/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 7 - 11  septiembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\GitHub\Ingenieria_Software\Semana 7 - 11  septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D503F7B1-673B-49A6-AFCB-D008D8980FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4240DB38-33FD-46B0-9346-10D433FBB202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -129,6 +129,30 @@
   </si>
   <si>
     <t>Cumplí el objetivo.</t>
+  </si>
+  <si>
+    <t>Tareas de otras materias</t>
+  </si>
+  <si>
+    <t>Investigar semat</t>
+  </si>
+  <si>
+    <t>Investigar Semat</t>
+  </si>
+  <si>
+    <t>investigar diagrama casos de uso</t>
+  </si>
+  <si>
+    <t>Objetivo dia anterior</t>
+  </si>
+  <si>
+    <t>Diagrama casos de uso y requerimientos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exposicion </t>
+  </si>
+  <si>
+    <t>Inicio graficos 4 semana</t>
   </si>
 </sst>
 </file>
@@ -370,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -423,6 +447,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,29 +769,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="57.77734375" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" customWidth="1"/>
+    <col min="3" max="3" width="57.81640625" customWidth="1"/>
+    <col min="4" max="4" width="42.90625" customWidth="1"/>
+    <col min="5" max="5" width="34.1796875" customWidth="1"/>
+    <col min="6" max="6" width="39.1796875" customWidth="1"/>
+    <col min="7" max="7" width="22.1796875" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" customWidth="1"/>
+    <col min="11" max="11" width="4.6328125" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.21875" customWidth="1"/>
+    <col min="14" max="14" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -784,7 +809,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -800,7 +825,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -823,42 +848,73 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -871,7 +927,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>8</v>
@@ -882,7 +938,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -893,7 +949,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
@@ -914,7 +970,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>8</v>
@@ -933,7 +989,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
@@ -952,7 +1008,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
@@ -965,7 +1021,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>8</v>
@@ -976,7 +1032,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>9</v>
@@ -987,7 +1043,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
@@ -1004,7 +1060,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>8</v>
@@ -1019,7 +1075,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>9</v>

--- a/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
+++ b/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57302\Documents\GitHub\Ingenieria_Software\Semana 7 - 11  septiembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 7 - 11  septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BC1455-BD3B-435E-BA29-9B04F4F452AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607E5505-104B-4171-AD24-24DBFD98F52D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Asistir a la presentación de avances en clase</t>
+  </si>
+  <si>
+    <t>Exponer en la clase con los compañeros</t>
+  </si>
+  <si>
+    <t>Asistir a reunión de asignación de tareas</t>
   </si>
 </sst>
 </file>
@@ -751,7 +757,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,8 +921,12 @@
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
@@ -932,8 +942,12 @@
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
@@ -949,8 +963,12 @@
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">

--- a/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
+++ b/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 7 - 11  septiembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\GitHub\Ingenieria_Software\Semana 7 - 11  septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607E5505-104B-4171-AD24-24DBFD98F52D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189265B5-0A4F-4FFD-957E-ADAB9044A6D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Asistir a reunión de asignación de tareas</t>
+  </si>
+  <si>
+    <t>Revisar las diapositivas y preparar para exposición</t>
+  </si>
+  <si>
+    <t>Asistir a reunión de asignación de tareas y realizar nuevos diseños</t>
   </si>
 </sst>
 </file>
@@ -756,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,9 +1048,15 @@
       <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
@@ -1057,9 +1069,15 @@
       <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
@@ -1072,9 +1090,15 @@
       <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
+++ b/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\GitHub\Ingenieria_Software\Semana 7 - 11  septiembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mythe\Documents\GitHub\Ingenieria_Software\Semana 7 - 11  septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189265B5-0A4F-4FFD-957E-ADAB9044A6D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D52C807-9DE2-40F6-BDCC-D477C20541B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Asistir a reunión de asignación de tareas y realizar nuevos diseños</t>
+  </si>
+  <si>
+    <t>Leer de las diapositivas del profe</t>
+  </si>
+  <si>
+    <t>Asistir a la reunión para el diagrama de requisitos y ayudar con el diagrama de casos de uso</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -762,29 +768,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="64.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.21875" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -802,7 +808,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -818,7 +824,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -841,7 +847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
@@ -854,7 +860,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>8</v>
@@ -865,7 +871,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -876,42 +882,72 @@
       <c r="F6" s="7"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
@@ -934,7 +970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>8</v>
@@ -955,7 +991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
@@ -976,7 +1012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
@@ -997,7 +1033,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>8</v>
@@ -1016,7 +1052,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>9</v>
@@ -1035,7 +1071,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
@@ -1058,7 +1094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>8</v>
@@ -1079,7 +1115,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>9</v>

--- a/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
+++ b/Semana 7 - 11  septiembre/Stand_Up_Meeitng_Week_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mythe\Documents\GitHub\Ingenieria_Software\Semana 7 - 11  septiembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57302\Documents\GitHub\Ingenieria_Software\Semana 7 - 11  septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D52C807-9DE2-40F6-BDCC-D477C20541B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD83B8B9-ED47-4B4D-A817-CED69A5BFAA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Asistir a la reunión para el diagrama de requisitos y ayudar con el diagrama de casos de uso</t>
+  </si>
+  <si>
+    <t>Asistir a la reunion de asignación de tareas</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -768,29 +771,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="64.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -808,7 +811,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -824,7 +827,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -847,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
@@ -860,7 +863,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>8</v>
@@ -871,7 +874,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -882,7 +885,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -905,7 +908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>8</v>
@@ -926,7 +929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -947,7 +950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
@@ -970,7 +973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>8</v>
@@ -991,7 +994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
@@ -1012,7 +1015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
@@ -1031,9 +1034,11 @@
       <c r="F13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>8</v>
@@ -1050,9 +1055,11 @@
       <c r="F14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>9</v>
@@ -1071,7 +1078,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
@@ -1094,7 +1101,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>8</v>
@@ -1115,7 +1122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>9</v>
